--- a/data/figs/people/people.xlsx
+++ b/data/figs/people/people.xlsx
@@ -205,7 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1EE84"/>
+        <fgColor rgb="FF82C6BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,109 +217,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FFFF2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF95A97A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF827CEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCD7C7B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF83E293"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7BB5FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2C8A9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2ACC9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDFDD2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF395A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8BEF1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCD7E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBAA8FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAF3BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CAEB4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD67AFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF967BA0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA698D3"/>
+        <fgColor rgb="FFB5DEFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0FEA4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7ACA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC47CC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7E977E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6CCE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCA8C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCB798"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6FBDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F97A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3A3E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80FAE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0A779"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96D77F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDF3B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF797CED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF18FFD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>

--- a/data/figs/people/people.xlsx
+++ b/data/figs/people/people.xlsx
@@ -205,7 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF82C6BD"/>
+        <fgColor rgb="FF8BF9A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,109 +217,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB5DEFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA0FEA4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA7ACA8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA8982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC47CC0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7E977E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6CCE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCA8C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCB798"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6FBDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F97A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB3A3E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80FAE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0A779"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF96D77F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDF3B7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF797CED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF18FFD"/>
+        <fgColor rgb="FF7FC57C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDFAA5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E581"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7B482"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE39EC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC08CAE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6DC89"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5CCBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCF8DEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA29E8C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9F3E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEAFE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF7A94"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7AC5F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4FFFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8780B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9C9EFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDED0F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>

--- a/data/figs/people/people.xlsx
+++ b/data/figs/people/people.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="56">
   <si>
     <t>Apr-2019</t>
   </si>
@@ -61,6 +61,9 @@
     <t>David Beavan</t>
   </si>
   <si>
+    <t>Eric Daub</t>
+  </si>
+  <si>
     <t>Evelina Gabasova</t>
   </si>
   <si>
@@ -109,28 +112,34 @@
     <t>Uncertainty in Government Modelling (0.6)</t>
   </si>
   <si>
-    <t>Knowledge Flows (0.5)</t>
-  </si>
-  <si>
-    <t>Living With Machines (1.0)</t>
+    <t>Knowledge Flows (0.6)</t>
+  </si>
+  <si>
+    <t>Living With Machines (1.2)</t>
+  </si>
+  <si>
+    <t>UQM^3 (0.6)</t>
+  </si>
+  <si>
+    <t>Probabilistic FEM (0.6)</t>
   </si>
   <si>
     <t>Biobank algorithm (0.6)</t>
   </si>
   <si>
-    <t>NATS (0.5)</t>
-  </si>
-  <si>
-    <t>Fitbit classification (0.5)</t>
-  </si>
-  <si>
-    <t>Living With Machines (0.5)</t>
-  </si>
-  <si>
-    <t>CWTS - Leiden (0.2)</t>
-  </si>
-  <si>
-    <t>Nocell (0.5)</t>
+    <t>NATS (0.6)</t>
+  </si>
+  <si>
+    <t>Fitbit classification (0.6)</t>
+  </si>
+  <si>
+    <t>Living With Machines (0.6)</t>
+  </si>
+  <si>
+    <t>CWTS - Leiden (0.3)</t>
+  </si>
+  <si>
+    <t>Nocell (0.6)</t>
   </si>
   <si>
     <t>Team management (0.1)</t>
@@ -139,40 +148,40 @@
     <t>Living With Machines (0.1)</t>
   </si>
   <si>
-    <t>Clean Air (0.5)</t>
-  </si>
-  <si>
-    <t>Streaming healthcare analytics (0.5)</t>
-  </si>
-  <si>
-    <t>GUARD (0.5)</t>
+    <t>Clean Air (0.6)</t>
+  </si>
+  <si>
+    <t>Streaming healthcare analytics (0.6)</t>
+  </si>
+  <si>
+    <t>GUARD (0.6)</t>
   </si>
   <si>
     <t>Leeds: Lomax, Malleson, Heppenstall (0.6)</t>
   </si>
   <si>
-    <t>AI for City Planning (0.5)</t>
-  </si>
-  <si>
-    <t>Parallel Monte Carlo (0.5)</t>
-  </si>
-  <si>
-    <t>Urban observatory spatial sampling (0.5)</t>
-  </si>
-  <si>
-    <t>DS for Sustainable Development (0.5)</t>
-  </si>
-  <si>
-    <t>Nocell (0.6)</t>
-  </si>
-  <si>
-    <t>AIDA-Lloyds (0.5)</t>
-  </si>
-  <si>
-    <t>Bayesian Performance Tuning (0.5)</t>
-  </si>
-  <si>
-    <t>Clean Air (0.4)</t>
+    <t>AI for City Planning (0.6)</t>
+  </si>
+  <si>
+    <t>Parallel Monte Carlo (0.6)</t>
+  </si>
+  <si>
+    <t>Urban observatory spatial sampling (0.6)</t>
+  </si>
+  <si>
+    <t>DS for Sustainable Development (0.6)</t>
+  </si>
+  <si>
+    <t>AIDA-Lloyds (0.6)</t>
+  </si>
+  <si>
+    <t>Bayesian Performance Tuning (0.6)</t>
+  </si>
+  <si>
+    <t>UQM^3 (0.5)</t>
+  </si>
+  <si>
+    <t>Probabilistic FEM (0.5)</t>
   </si>
 </sst>
 </file>
@@ -196,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,7 +214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8BF9A0"/>
+        <fgColor rgb="FF87FFFB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,109 +226,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FC57C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDFAA5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E581"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7B482"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE39EC6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC08CAE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6DC89"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5CCBE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCF8DEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA29E8C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9F3E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEAFE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEF7A94"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7AC5F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4FFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8780B3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9C9EFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDED0F8"/>
+        <fgColor rgb="FFE3E37B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7ACFE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8C8AE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCED8E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFDA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2DDB4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA2E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE0CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEA67A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC37EFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1F994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABB3CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E979C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE57BBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BECD2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9290F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2FEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7867C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7DED82"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6CB89"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -414,6 +435,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,40 +792,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="3"/>
     </row>
@@ -808,28 +835,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -845,43 +872,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -892,41 +919,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
@@ -935,150 +944,144 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1092,101 +1095,95 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1199,36 +1196,42 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>41</v>
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="L13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15">
@@ -1236,32 +1239,32 @@
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>52</v>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1276,79 +1279,85 @@
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
       <c r="C17" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1368,36 +1377,56 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="C18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1412,15 +1441,17 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1435,15 +1466,17 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1458,39 +1491,23 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1499,35 +1516,21 @@
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>48</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -1540,57 +1543,69 @@
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="C24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1598,22 +1613,20 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1631,113 +1644,95 @@
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="C27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="C29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1750,48 +1745,133 @@
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="C30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/figs/people/people.xlsx
+++ b/data/figs/people/people.xlsx
@@ -232,133 +232,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBE94A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81FC8C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF819E7A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF787D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DBFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB481DC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5C2E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9CCAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8AB5FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC7B96"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD07A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF94E9B9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6A183"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FCBE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7EF3F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8AA6BF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF937F99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1F9C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5EE7D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD19AFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2B995"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7B80F4"/>
+        <fgColor rgb="FF99B27B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3C2AE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF482A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEF80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D3F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91FE81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CF6C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7ED194"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9FAD7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3DA8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B2DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD787E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA7EFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF849DAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7FDEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ED8FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F80EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB57C83"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBB284"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA37BC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEC1EB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
